--- a/workbook.xlsx
+++ b/workbook.xlsx
@@ -86,7 +86,7 @@
             <a:srgbClr val="0000FF"/>
           </a:solidFill>
           <a:prstDash val="lgDash"/>
-          <a:tailEnd type="triangle" len="lg" w="lg"/>
+          <a:headEnd type="triangle" len="lg" w="lg"/>
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>

--- a/workbook.xlsx
+++ b/workbook.xlsx
@@ -57,6 +57,56 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>6</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1" name="PJEL_DEMANDE"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr anchor="t" rtlCol="false" tIns="0">
+          <a:normAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>toto</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>2</xdr:row>
@@ -70,7 +120,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="0" name="Shape 1"/>
+        <xdr:cNvPr id="1" name="Shape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>

--- a/workbook.xlsx
+++ b/workbook.xlsx
@@ -18,13 +18,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="10.0"/>
+      <b val="true"/>
+      <i val="true"/>
     </font>
   </fonts>
   <fills count="2">
@@ -82,7 +88,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FFFF00"/>
+          <a:srgbClr val="00FFFF"/>
         </a:solidFill>
         <a:ln w="38100">
           <a:solidFill>
@@ -91,14 +97,14 @@
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr anchor="t" rtlCol="false" tIns="0">
+        <a:bodyPr anchor="ctr" rtlCol="false" tIns="0">
           <a:normAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US"/>
-            <a:t>toto</a:t>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>ZT1</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -107,6 +113,62 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="0" name="Group 0"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+          <a:chOff x="0" y="0"/>
+          <a:chExt cx="0" cy="0"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="1" name="Shape 1"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr anchor="t" rtlCol="false"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" b="true" i="true" sz="1000">
+                <a:latin typeface="Verdana"/>
+              </a:rPr>
+              <a:t>toto</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>2</xdr:row>
@@ -120,7 +182,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1" name="Shape 1"/>
+        <xdr:cNvPr id="2" name="Shape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>

--- a/workbook.xlsx
+++ b/workbook.xlsx
@@ -105,6 +105,55 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1" name="Shape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="0000FF"/>
+          </a:solidFill>
+          <a:prstDash val="lgDash"/>
+          <a:headEnd type="triangle" len="lg" w="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr anchor="t" rtlCol="false"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
